--- a/medicine/Enfance/Le_Vent_dans_les_saules_(roman)/Le_Vent_dans_les_saules_(roman).xlsx
+++ b/medicine/Enfance/Le_Vent_dans_les_saules_(roman)/Le_Vent_dans_les_saules_(roman).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le Vent dans les saules (titre original : The Wind in the Willows) est un roman publié en 1908 par le romancier écossais Kenneth Grahame. En France, le roman est paru pour la première fois en 1935[1]. 
+Le Vent dans les saules (titre original : The Wind in the Willows) est un roman publié en 1908 par le romancier écossais Kenneth Grahame. En France, le roman est paru pour la première fois en 1935. 
 C'est un des classiques de la littérature britannique pour enfant, et l'un des principaux représentants de la fantasy animalière. Ce roman se singularise par son mélange de mysticisme, d'aventure, de moralité et de camaraderie, et il est célèbre pour son évocation de la nature de la vallée de la Tamise.
 </t>
         </is>
@@ -513,10 +525,12 @@
           <t>L'auteur</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1908, Kenneth Grahame (1859-1932) quitte son poste de secrétaire à la Banque d'Angleterre et retourne à Cookham, dans le Berkshire, où il a passé son enfance. C'est à cet endroit qu'il passait son temps sur les bords de la Tamise comme les personnages de son livre, et il se mit alors à écrire ces histoires pour son fils Alistair, qui partageait l'entêtement de Crapaud Baron Têtard (un des personnages principaux).
-Le président américain Theodore Roosevelt écrit en 1909 à K. Grahame « qu'il l'a [le roman] lu et relu, et en est arrivé à considérer les personnages comme de vieux amis »[2].
+Le président américain Theodore Roosevelt écrit en 1909 à K. Grahame « qu'il l'a [le roman] lu et relu, et en est arrivé à considérer les personnages comme de vieux amis ».
 </t>
         </is>
       </c>
@@ -545,7 +559,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est le printemps à la campagne, et le soleil brille. Le débonnaire monsieur Taupe (Mole) est fatigué de son grand nettoyage de printemps et décide donc de sortir de sa maison souterraine pour prendre l'air. Il finit par atteindre la rivière, qu'il n'avait jamais vue auparavant. Là, il rencontre monsieur Rat (Ratty, de fait un grand campagnol), qui passe 
 absolument  toutes ses journées sur la rivière. Surpris par le fait que Taupe ne soit jamais allé sur la rivière, Rat l'invite alors à faire un tour à bord de sa barque et les deux animaux s'entendent à merveille. Ils se retrouvent par la suite plusieurs fois pour naviguer, et Rat enseigne à Taupe tout ce qu'il sait sur la rivière.
@@ -582,7 +598,9 @@
           <t>Personnages principaux</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Taupe : un animal doux, sensible et casanier. Il est le premier personnage à apparaître. Fatigué de son nettoyage de printemps dans sa maison souterraine, il s'aventure dans le monde extérieur et développe une vie plus productive. D'abord impressionné par l'agitation de la berge, il s'adapte rapidement.
 Rat : un animal détendu et amical, qui aime la rivière et prend sous son aile Taupe. Il peut être parfois espiègle, et aussi un peu têtu quand il s'agit de faire des choses en dehors de son style de vie riverain.
@@ -618,17 +636,124 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Au cinéma
-1996 : Du vent dans les saules, film britannique de Terry Jones
-À la télévision
-1970 : The Reluctant Dragon and Mr. Toad Show, téléfilm musical d'animation de Jules Bass et Arthur Rankin Jr.
+          <t>Au cinéma</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>1996 : Du vent dans les saules, film britannique de Terry Jones</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Le_Vent_dans_les_saules_(roman)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Le_Vent_dans_les_saules_(roman)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Adaptations</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>À la télévision</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>1970 : The Reluctant Dragon and Mr. Toad Show, téléfilm musical d'animation de Jules Bass et Arthur Rankin Jr.
 1983 : Le Vent dans les saules (The Wind in the Willows), téléfilm britannique d'animation de Mark Hall et Chris Taylor
 1983–1990 : Le Vent dans les saules (The Wind in the Willows), série d'animation de Mark Hall et Chris Taylor
-1987 : The Wind in the Willows, téléfilm musical d'animation de Jules Bass et Arthur Rankin Jr., avec Eddie Bracken, José Ferrer, Roddy McDowall et la chanson "Wind in the Willows" chanté par Judy Collins.
-Au théâtre
-1946 : Toad of Toad Hall (Monsieur Crapaud) est le titre de l'adaptation du roman au théâtre par Alan Alexander Milne
-Autres adaptations
-1990 : Le Vent dans les saules, une bande dessinée d'après une histoire originale de Kenneth Grahame (texte de Anne McKie, illustré par Ken McKie, traduit par Martin Des Rochers, publié par les éditions Tormont Inc), comprend les titres suivants : La Rivière, La Grand-route, La Forêt, Les Aventures de M. Crapaud, Les Nouvelles Aventures de M. Crapaud et La Bataille du manoir de la Crapaudière.
+1987 : The Wind in the Willows, téléfilm musical d'animation de Jules Bass et Arthur Rankin Jr., avec Eddie Bracken, José Ferrer, Roddy McDowall et la chanson "Wind in the Willows" chanté par Judy Collins.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Le_Vent_dans_les_saules_(roman)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Le_Vent_dans_les_saules_(roman)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Adaptations</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Au théâtre</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>1946 : Toad of Toad Hall (Monsieur Crapaud) est le titre de l'adaptation du roman au théâtre par Alan Alexander Milne</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Le_Vent_dans_les_saules_(roman)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Le_Vent_dans_les_saules_(roman)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Adaptations</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Autres adaptations</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>1990 : Le Vent dans les saules, une bande dessinée d'après une histoire originale de Kenneth Grahame (texte de Anne McKie, illustré par Ken McKie, traduit par Martin Des Rochers, publié par les éditions Tormont Inc), comprend les titres suivants : La Rivière, La Grand-route, La Forêt, Les Aventures de M. Crapaud, Les Nouvelles Aventures de M. Crapaud et La Bataille du manoir de la Crapaudière.
 1991 : The wind in the willows, concert rock avec Eddie Hardin, Zak Starkey (fils de Ringo Starr), Donovan, Jon Lord, Tony Ashton, Pete York, Denny Laine, Maggie Bell et d'autres. Disponible en cd et DVD.
 1996-2001 : Le Vent dans les saules une bande dessinée de Michel Plessix.
 Une œuvre pour orchestre d'harmonie, The Wind of the Willows de Johan de Meij
